--- a/Practice condition.xlsx
+++ b/Practice condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Spring 2020\Psy Independent Study\Linguistics-Mandarin-English-Priming-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAF3CA-AD3A-4568-8DDB-DF0A063C485E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26896210-EF8B-4C97-BEF8-4FDC0FB9CE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43110" yWindow="5010" windowWidth="17740" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>word1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,53 +59,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eye.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cap.wav</t>
-  </si>
-  <si>
-    <t>Pun.wav</t>
-  </si>
-  <si>
-    <t>潘_close_English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gsd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怕_close_English</t>
+    <t>Mud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mud.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ant.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bun.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买_practice_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tin.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toy.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐_practice_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需_practice_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flu.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hum.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影_practice_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rib.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露_practice_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾_practice_Mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惑_practice_Mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆_practice_Mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筐_practice_Mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垒_practice_Mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chu4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ji4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gang3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chang4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheng2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dao3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mei2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bai4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiu4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tao1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lian2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qian3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pai4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin3.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -467,54 +737,262 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
